--- a/TableSupp/policy-Spontaneous-res_table.xlsx
+++ b/TableSupp/policy-Spontaneous-res_table.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>3600</v>
+        <v>3623.06</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -543,16 +543,16 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>400</v>
+        <v>376.94</v>
       </c>
       <c r="P2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>5000</v>
       </c>
       <c r="R2">
-        <v>5060</v>
+        <v>4999.999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -593,16 +593,16 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>220</v>
+        <v>210.36</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>920</v>
+        <v>882.85</v>
       </c>
       <c r="P3">
-        <v>2860</v>
+        <v>2906.79</v>
       </c>
       <c r="Q3">
         <v>5000</v>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2940</v>
+        <v>2914.29</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1060</v>
+        <v>1085.71</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1400</v>
+        <v>1411.11</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3600</v>
+        <v>3567.46</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>21.43</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3200</v>
+        <v>3153.01</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1600</v>
+        <v>1646.99</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1400</v>
+        <v>1388.89</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1300</v>
+        <v>1289.68</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1100</v>
+        <v>1147.6</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>900</v>
+        <v>881.7</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>305</v>
+        <v>292.13</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>5000</v>
       </c>
       <c r="R7">
-        <v>5005</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2580</v>
+        <v>2593.22</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1420</v>
+        <v>1406.78</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -896,55 +896,55 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1400</v>
+        <v>1388.89</v>
       </c>
       <c r="C9">
-        <v>3600</v>
+        <v>3611.11</v>
       </c>
       <c r="D9">
         <v>3000</v>
       </c>
       <c r="E9">
-        <v>1300</v>
+        <v>1289.68</v>
       </c>
       <c r="F9">
-        <v>3600</v>
+        <v>3567.46</v>
       </c>
       <c r="G9">
-        <v>2940</v>
+        <v>2914.29</v>
       </c>
       <c r="H9">
-        <v>1100</v>
+        <v>1147.6</v>
       </c>
       <c r="I9">
-        <v>3200</v>
+        <v>3174.44</v>
       </c>
       <c r="J9">
-        <v>2580</v>
+        <v>2593.22</v>
       </c>
       <c r="K9">
-        <v>900</v>
+        <v>881.7</v>
       </c>
       <c r="L9">
-        <v>3600</v>
+        <v>3623.06</v>
       </c>
       <c r="M9">
-        <v>2700</v>
+        <v>2702.85</v>
       </c>
       <c r="N9">
-        <v>305</v>
+        <v>292.13</v>
       </c>
       <c r="O9">
-        <v>2920</v>
+        <v>2906.79</v>
       </c>
       <c r="P9">
-        <v>2920</v>
+        <v>2906.79</v>
       </c>
       <c r="Q9" t="s">
         <v>21</v>
       </c>
       <c r="R9">
-        <v>36065</v>
+        <v>36000.01</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -952,55 +952,55 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>280</v>
+        <v>277.78</v>
       </c>
       <c r="C10">
-        <v>720</v>
+        <v>722.22</v>
       </c>
       <c r="D10">
         <v>1000</v>
       </c>
       <c r="E10">
-        <v>260</v>
+        <v>257.94</v>
       </c>
       <c r="F10">
-        <v>720</v>
+        <v>713.49</v>
       </c>
       <c r="G10">
-        <v>1020</v>
+        <v>1028.57</v>
       </c>
       <c r="H10">
-        <v>220</v>
+        <v>229.52</v>
       </c>
       <c r="I10">
-        <v>640</v>
+        <v>634.89</v>
       </c>
       <c r="J10">
-        <v>1140</v>
+        <v>1135.59</v>
       </c>
       <c r="K10">
-        <v>180</v>
+        <v>176.34</v>
       </c>
       <c r="L10">
-        <v>720</v>
+        <v>724.61</v>
       </c>
       <c r="M10">
-        <v>1100</v>
+        <v>1099.05</v>
       </c>
       <c r="N10">
-        <v>61</v>
+        <v>58.43</v>
       </c>
       <c r="O10">
-        <v>584</v>
+        <v>581.36</v>
       </c>
       <c r="P10">
-        <v>584</v>
+        <v>581.36</v>
       </c>
       <c r="Q10" t="s">
         <v>21</v>
       </c>
       <c r="R10">
-        <v>9229</v>
+        <v>9221.150000000001</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1008,55 +1008,55 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>280</v>
+        <v>277.78</v>
       </c>
       <c r="C11">
-        <v>720</v>
+        <v>722.22</v>
       </c>
       <c r="D11">
         <v>600</v>
       </c>
       <c r="E11">
-        <v>260</v>
+        <v>257.94</v>
       </c>
       <c r="F11">
-        <v>720</v>
+        <v>713.49</v>
       </c>
       <c r="G11">
-        <v>588</v>
+        <v>582.86</v>
       </c>
       <c r="H11">
-        <v>220</v>
+        <v>229.52</v>
       </c>
       <c r="I11">
-        <v>640</v>
+        <v>634.89</v>
       </c>
       <c r="J11">
-        <v>516</v>
+        <v>518.64</v>
       </c>
       <c r="K11">
-        <v>180</v>
+        <v>176.34</v>
       </c>
       <c r="L11">
-        <v>720</v>
+        <v>724.61</v>
       </c>
       <c r="M11">
-        <v>540</v>
+        <v>540.5700000000001</v>
       </c>
       <c r="N11">
-        <v>61</v>
+        <v>58.43</v>
       </c>
       <c r="O11">
-        <v>584</v>
+        <v>581.36</v>
       </c>
       <c r="P11">
-        <v>584</v>
+        <v>581.36</v>
       </c>
       <c r="Q11" t="s">
         <v>21</v>
       </c>
       <c r="R11">
-        <v>7213</v>
+        <v>7200.009999999999</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1067,7 +1067,7 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>3251.43</v>
+        <v>3251.05</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1076,7 +1076,7 @@
         <v>21</v>
       </c>
       <c r="F12">
-        <v>3183.93</v>
+        <v>3156.12</v>
       </c>
       <c r="G12" t="s">
         <v>21</v>
@@ -1085,7 +1085,7 @@
         <v>21</v>
       </c>
       <c r="I12">
-        <v>2792.66</v>
+        <v>2808.41</v>
       </c>
       <c r="J12" t="s">
         <v>21</v>
@@ -1094,7 +1094,7 @@
         <v>21</v>
       </c>
       <c r="L12">
-        <v>2913.91</v>
+        <v>2916.33</v>
       </c>
       <c r="M12" t="s">
         <v>21</v>
@@ -1103,7 +1103,7 @@
         <v>21</v>
       </c>
       <c r="O12">
-        <v>2444.83</v>
+        <v>2454.85</v>
       </c>
       <c r="P12" t="s">
         <v>21</v>
@@ -1188,7 +1188,7 @@
         <v>21</v>
       </c>
       <c r="F14">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G14" t="s">
         <v>21</v>
@@ -1197,7 +1197,7 @@
         <v>21</v>
       </c>
       <c r="I14">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="J14" t="s">
         <v>21</v>
@@ -1206,7 +1206,7 @@
         <v>21</v>
       </c>
       <c r="L14">
-        <v>4.7</v>
+        <v>4.71</v>
       </c>
       <c r="M14" t="s">
         <v>21</v>
@@ -1235,7 +1235,7 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>9732</v>
+        <v>9732.219999999999</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1244,7 +1244,7 @@
         <v>21</v>
       </c>
       <c r="F15">
-        <v>8127.6</v>
+        <v>8056.49</v>
       </c>
       <c r="G15" t="s">
         <v>21</v>
@@ -1253,7 +1253,7 @@
         <v>21</v>
       </c>
       <c r="I15">
-        <v>7133.2</v>
+        <v>7168.91</v>
       </c>
       <c r="J15" t="s">
         <v>21</v>
@@ -1262,7 +1262,7 @@
         <v>21</v>
       </c>
       <c r="L15">
-        <v>7470</v>
+        <v>7478.28</v>
       </c>
       <c r="M15" t="s">
         <v>21</v>
@@ -1271,7 +1271,7 @@
         <v>21</v>
       </c>
       <c r="O15">
-        <v>6384.7</v>
+        <v>6344.09</v>
       </c>
       <c r="P15" t="s">
         <v>21</v>
@@ -1280,7 +1280,7 @@
         <v>21</v>
       </c>
       <c r="R15">
-        <v>38847.5</v>
+        <v>38779.99</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1300,7 +1300,7 @@
         <v>21</v>
       </c>
       <c r="F16">
-        <v>939</v>
+        <v>941.14</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
@@ -1309,7 +1309,7 @@
         <v>21</v>
       </c>
       <c r="I16">
-        <v>596.2</v>
+        <v>597.88</v>
       </c>
       <c r="J16" t="s">
         <v>21</v>
@@ -1318,7 +1318,7 @@
         <v>21</v>
       </c>
       <c r="L16">
-        <v>121.6</v>
+        <v>255.88</v>
       </c>
       <c r="M16" t="s">
         <v>21</v>
@@ -1336,7 +1336,7 @@
         <v>21</v>
       </c>
       <c r="R16">
-        <v>3056.8</v>
+        <v>3194.9</v>
       </c>
     </row>
   </sheetData>

--- a/TableSupp/policy-Spontaneous-res_table.xlsx
+++ b/TableSupp/policy-Spontaneous-res_table.xlsx
@@ -1206,7 +1206,7 @@
         <v>21</v>
       </c>
       <c r="L14">
-        <v>3.71</v>
+        <v>4.71</v>
       </c>
       <c r="M14" t="s">
         <v>21</v>
@@ -1215,7 +1215,7 @@
         <v>21</v>
       </c>
       <c r="O14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P14" t="s">
         <v>21</v>
@@ -1224,7 +1224,7 @@
         <v>21</v>
       </c>
       <c r="R14">
-        <v>16.15</v>
+        <v>18.15</v>
       </c>
     </row>
     <row r="15" spans="1:18">
